--- a/biology/Botanique/Liste_de_plantes_utilisées_en_phytothérapie/Liste_de_plantes_utilisées_en_phytothérapie.xlsx
+++ b/biology/Botanique/Liste_de_plantes_utilisées_en_phytothérapie/Liste_de_plantes_utilisées_en_phytothérapie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_utilis%C3%A9es_en_phytoth%C3%A9rapie</t>
+          <t>Liste_de_plantes_utilisées_en_phytothérapie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -511,7 +523,7 @@
 Z
 On compte environ 2 000 plantes utilisées en herboristerie. Jusqu'à l'avènement de la chimie moderne (extraction, synthétisation), les plantes ont été une des principales, sinon la principale, ressource de la pharmacopée utilisée par les différentes civilisations. Elles font historiquement partie de la médecine et restent des éléments de bases de la chimiothérapie moderne.
 Dans son ensemble, une plante constitue un ensemble riche et complexe, composé de parties aériennes (feuille, fruit, fleur...) et de parties souterraines (racine, rhizome...). Elle peut avoir une ou plusieurs parties actives avec des indications pouvant être différentes, qui seront utilisées avec indications et des méthodes de préparation différentes.
-La recherche en phytothérapie sélectionne les plantes les plus actives et les plus efficaces pour lutter contre les maladies[1]. Limitation des effets indésirables, dositométrie des principes actifs stabilisés. Avec ces méthodes, la pharmacognosie ouvre la porte à de nouvelles utilisations venues des végétaux, par exemple dans la lutte contre les cancers[2].
+La recherche en phytothérapie sélectionne les plantes les plus actives et les plus efficaces pour lutter contre les maladies. Limitation des effets indésirables, dositométrie des principes actifs stabilisés. Avec ces méthodes, la pharmacognosie ouvre la porte à de nouvelles utilisations venues des végétaux, par exemple dans la lutte contre les cancers.
 </t>
         </is>
       </c>
@@ -522,7 +534,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_utilis%C3%A9es_en_phytoth%C3%A9rapie</t>
+          <t>Liste_de_plantes_utilisées_en_phytothérapie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,7 +552,9 @@
           <t>Les techniques d'obtention des principes actifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Traditionnellement, les plantes pour leur administration étaient préparées en infusion, décoction ou macération. Aujourd'hui, il existe de la poudre de plante totale cryobroyée, plus pratique et plus concentrée, et surtout dosée. La poudre de plante cryobroyée est obtenue par pulvérisation de la partie active de la plante sèche, par un broyage à froid sous azote liquide, elle est alors commercialisée en particulier sous forme de gélules. Le cryobroyage présente toutefois l'inconvénient de dégrader une proportion non négligeable des constituants de la plante (les vitamines, les enzymes, les substances volatiles et de nombreux autres).
 Pour préserver l’intégrité des principes actifs, il est préférable d'utiliser un broyage grossier (cisaillement) suivi d'une extraction qui permet l'obtention d'un produit plus pur et exempt d’éventuels contaminants chimiques et biologiques. Ce procédé consiste en plusieurs étapes :
